--- a/Portfolio_2D/Assets/05. DataTable/ItemDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/ItemDataTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,6 +37,22 @@
   </si>
   <si>
     <t>선택 유닛이 경험치를 100 만큼 얻습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치 포션(중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치 포션(대)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 유닛이 경험치를 500 만큼 얻습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 유닛이 경험치를 1,000 만큼 얻습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -45,7 +61,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -88,7 +104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -371,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:XFD1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -397,13 +413,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio_2D/Assets/05. DataTable/ItemDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/ItemDataTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,20 @@
   </si>
   <si>
     <t>선택 유닛이 경험치를 1,000 만큼 얻습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemIconSpriteName</t>
+  </si>
+  <si>
+    <t>equip_potion_green_1</t>
+  </si>
+  <si>
+    <t>equip_potion_green_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_potion_green_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -398,9 +412,10 @@
     <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="39" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -410,8 +425,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2000</v>
       </c>
@@ -421,8 +439,11 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2001</v>
       </c>
@@ -432,8 +453,11 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2002</v>
       </c>
@@ -442,6 +466,9 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio_2D/Assets/05. DataTable/ItemDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/ItemDataTable.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C624325B-5C30-4991-A126-2FE29A703480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3075" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumableItemData" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,21 +60,34 @@
     <t>itemIconSpriteName</t>
   </si>
   <si>
-    <t>equip_potion_green_1</t>
-  </si>
-  <si>
-    <t>equip_potion_green_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equip_potion_green_3</t>
+    <t>Experience_potion_green_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Experience_potion_green_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Experience_potion_green_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 레벨업 포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무작위 스킬의 레벨이 1 오릅니다.(MAX 5레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillLevelUP_potion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -400,11 +414,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -471,6 +485,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Portfolio_2D/Assets/05. DataTable/ItemDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/ItemDataTable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C624325B-5C30-4991-A126-2FE29A703480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BD4418-3202-49A8-B75C-D9B0E800FB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6660" yWindow="3045" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumableItemData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,15 @@
   <si>
     <t>SkillLevelUP_potion</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productGoldValue</t>
+  </si>
+  <si>
+    <t>productDiaValue</t>
+  </si>
+  <si>
+    <t>isShopProduct</t>
   </si>
 </sst>
 </file>
@@ -415,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -426,10 +435,13 @@
     <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -442,8 +454,17 @@
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2000</v>
       </c>
@@ -456,8 +477,17 @@
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2001</v>
       </c>
@@ -470,8 +500,17 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2002</v>
       </c>
@@ -484,8 +523,17 @@
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2003</v>
       </c>
@@ -497,6 +545,15 @@
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2500</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio_2D/Assets/05. DataTable/ItemDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/ItemDataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BD4418-3202-49A8-B75C-D9B0E800FB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6752101-A0FE-41EF-B20D-FB637502C723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="3045" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumableItemData" sheetId="1" r:id="rId1"/>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무작위 스킬의 레벨이 1 오릅니다.(MAX 5레벨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillLevelUP_potion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,6 +87,10 @@
   </si>
   <si>
     <t>isShopProduct</t>
+  </si>
+  <si>
+    <t>스킬의 레벨을 상승시킬 수 있습니다.(MAX 5레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -455,13 +455,13 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -541,10 +541,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E5" s="1" t="b">
         <v>1</v>
